--- a/gameData/shared/AllianceVillage.xlsx
+++ b/gameData/shared/AllianceVillage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="3060" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="7340" yWindow="2160" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="wood" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_needhonour</t>
+    <t>INT_needHonour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,8 +174,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,7 +299,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="99">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -346,6 +348,7 @@
     <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -394,6 +397,7 @@
     <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -726,7 +730,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1141,7 +1145,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1556,7 +1560,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1971,7 +1975,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2384,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2814,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/AllianceVillage.xlsx
+++ b/gameData/shared/AllianceVillage.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10680" yWindow="3480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="woodVillage" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="10">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>STR_soldiers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_1_5,swordsman_1_10,sentinel_1_10,ranger_1_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,8 +170,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -357,7 +363,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="167">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -440,6 +446,7 @@
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -522,6 +529,7 @@
     <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -854,7 +862,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -896,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -913,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -930,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -947,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -964,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -981,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -998,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1015,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1032,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1049,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">

--- a/gameData/shared/AllianceVillage.xlsx
+++ b/gameData/shared/AllianceVillage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="3480" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="8440" yWindow="3340" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="woodVillage" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="9">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>INT_needHonour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_1:10,sentinel_1:10,ranger_1:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,8 +166,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -363,7 +361,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="169">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -447,6 +445,7 @@
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -530,6 +529,7 @@
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -938,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -989,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1006,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1057,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1234,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1251,7 +1251,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1268,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1285,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1302,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1319,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1336,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1353,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -1488,7 +1488,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1513,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1530,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1547,7 +1547,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1564,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1581,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1598,7 +1598,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1615,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1649,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1666,7 +1666,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1683,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -1801,7 +1801,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1826,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1860,7 +1860,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1877,7 +1877,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1894,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1911,7 +1911,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -1928,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -1945,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -1962,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -1979,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -1996,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2139,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -2156,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -2173,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -2190,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -2207,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -2224,7 +2224,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -2258,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -2275,7 +2275,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -2292,7 +2292,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -2309,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -2426,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2449,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -2463,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2477,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2491,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -2505,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -2519,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -2533,7 +2533,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -2547,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -2561,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -2575,7 +2575,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -2589,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
